--- a/Documents/Excels/Data.xlsx
+++ b/Documents/Excels/Data.xlsx
@@ -431,7 +431,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -455,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1"/>
     </row>
